--- a/산출물/17.통합테스트시나리오.xlsx
+++ b/산출물/17.통합테스트시나리오.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="680" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="660" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="20" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1234">
   <si>
     <t>검토이력</t>
   </si>
@@ -3378,6 +3378,570 @@
   </si>
   <si>
     <t>통계</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>통합</t>
+  </si>
+  <si>
+    <t>통 합</t>
+  </si>
+  <si>
+    <t>T-SID-002</t>
+  </si>
+  <si>
+    <t>T-SID-003</t>
+  </si>
+  <si>
+    <t>T-SID-004</t>
+  </si>
+  <si>
+    <t>맞춤법 검사 기능에서 자소서나 이력서에 쓸 단어나 문장을 입력하여 맞춤법 검사를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>글자수 세기 기능으로 글자 수를 셀 수 있다.</t>
+  </si>
+  <si>
+    <t>학점계산기로 학점을 계산할 수 있다.</t>
+  </si>
+  <si>
+    <t>화상면접 시스템으로 화상 면접을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/박형준</t>
+  </si>
+  <si>
+    <t>T-CCT-002</t>
+  </si>
+  <si>
+    <t>공지사항에 들어가면 일반회원/기업회원에 맞는 공지글을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>도움말에 들어가면 일반회원/기업회원에 맞는 FAQ를 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>T-MAN-002</t>
+  </si>
+  <si>
+    <t>T-MAN-003</t>
+  </si>
+  <si>
+    <t>T-MAN-004</t>
+  </si>
+  <si>
+    <t>T-MAN-005</t>
+  </si>
+  <si>
+    <t>T-MAN-006</t>
+  </si>
+  <si>
+    <t>T-MAN-007</t>
+  </si>
+  <si>
+    <t>T-MAN-008</t>
+  </si>
+  <si>
+    <t>T-MAN-009</t>
+  </si>
+  <si>
+    <t>T-MAN-010</t>
+  </si>
+  <si>
+    <t>일반회원 계정목록에서 회원들의 정보를 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>차단 계정 목록에서 차단된 회원들을 볼 수 있고, 풀어줄 수 있다.</t>
+  </si>
+  <si>
+    <t>블랙리스트 목록에서 블랙된 회원들을 볼 수 있고, 풀어줄 수 있다.</t>
+  </si>
+  <si>
+    <t>기업회원 계정목록에서 회원들의 정보를 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>기업총괄회원 계정목록에서 총괄회원 신청목록을 볼 수 있고, 승인하거나 반려할 수 있다. 승인시 회사도 같이 등록된다.</t>
+  </si>
+  <si>
+    <t>전문가 계정목록에서 회원들의 정보를 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>전문가 신청목록에서 신청한 회원들의 목록을 보고, 승인, 반려 할 수 있다.</t>
+  </si>
+  <si>
+    <t>상품 신청목록에서 신청한 상품을 보고 승인, 반려 할 수 있다.</t>
+  </si>
+  <si>
+    <t>상품 철회목록에서 승인되었던 상품중 철회를 신청한 상품의 목록을 보고, 승인, 반려할 수 있다.</t>
+  </si>
+  <si>
+    <t>신고 관리에서 신고된 게시글, 댓글 목록을 볼 수 있고, 차단하거나 블랙리스트로 적용할 수 있다.</t>
+  </si>
+  <si>
+    <t>관심공고 등록 버튼을 클릭하여 관심공고를 등록 및 삭제할 수 있다.</t>
+  </si>
+  <si>
+    <t>관심기업 등록 버튼을 클릭하여 관심기업을 등록 및 삭제할 수 있다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/최경수,양서연</t>
+  </si>
+  <si>
+    <t>I-ANN-001</t>
+  </si>
+  <si>
+    <t>I-ANN-002</t>
+  </si>
+  <si>
+    <t>I-ANN-003</t>
+  </si>
+  <si>
+    <t>I-ANN-004</t>
+  </si>
+  <si>
+    <t>공고 등록 버튼을 클릭하면 공고 등록 폼으로 이동함.</t>
+  </si>
+  <si>
+    <t>공고 공통 정보와 복수의 세부공고 정보를 입력할 수 있다.</t>
+  </si>
+  <si>
+    <t>탭 추가 버튼을 클릭하여 세부공고를 추가할 수 있다.</t>
+  </si>
+  <si>
+    <t>등록 버튼을 클릭하여 공고를 등록한다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/최경수, 양서연</t>
+  </si>
+  <si>
+    <t>T-PRT-002</t>
+  </si>
+  <si>
+    <t>T-PRT-003</t>
+  </si>
+  <si>
+    <t>홍보글을 선택하면 홍보글 세부내용을 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/윤호연</t>
+  </si>
+  <si>
+    <t>T-LAB-002</t>
+  </si>
+  <si>
+    <t>T-LAB-003</t>
+  </si>
+  <si>
+    <t>T-LAB-004</t>
+  </si>
+  <si>
+    <t>T-LAB-005</t>
+  </si>
+  <si>
+    <t>취업랩 메인으로 들어가면 뉴스, 공모전, 1대1 상담, 취업지원 내용 중 원하는 항목을 선택할 수 있다.</t>
+  </si>
+  <si>
+    <t>뉴스를 선택해 들어가면, 취업과 기업, 채용 관련 뉴스들의 목록을 조회할 수 있고 검색기능과 카테고리별 정렬 기능을 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>뉴스 클릭시 관련 뉴스 세부내용을 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>공모전을 선택해 들어가면, 현재 진행 중인 공모전 목록들을 확인할 수 있고, 검색기능과 카테고리별 정렬 기능을 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>원하는 공모전 클릭시 관련 세부내용을 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>S-MATCH-001</t>
+  </si>
+  <si>
+    <t>S-MATCH-002</t>
+  </si>
+  <si>
+    <t>S-MATCH-003</t>
+  </si>
+  <si>
+    <t>다면평가 기반 매칭 시스템을 통해, 자신의 스펙점수와 합격자의 스펙점수를 비교할 수 있다.</t>
+  </si>
+  <si>
+    <t>자신의 스펙 환산점수를 모달창으로 확인하여 매칭을 시도할 수 있고, 내 이력서를 통해 수정할 수 있다.</t>
+  </si>
+  <si>
+    <t>스펙 환산점수에 따라 합격자의 상위 50%, 70% 점수에 맞추어 가능성 여부를 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/최경수,양서연,윤호연</t>
+  </si>
+  <si>
+    <t>I-PRT-001</t>
+  </si>
+  <si>
+    <t>I-PRT-002</t>
+  </si>
+  <si>
+    <t>I-PRT-003</t>
+  </si>
+  <si>
+    <t>I-PRT-004</t>
+  </si>
+  <si>
+    <t>I-PRT-005</t>
+  </si>
+  <si>
+    <t>I-PRT-006</t>
+  </si>
+  <si>
+    <t>조건에 맞춰서 원하는 자기 홍보글을 등록한 인재를 검색할 수 있으며, 관심인재로 등록이 가능하다.</t>
+  </si>
+  <si>
+    <t>인재를 선택해 들어가면, 인재가 가진 스펙과 자기 소개글을 확인 할 수 있으며, 해당 인재의 희망 근무지역과 연봉 및 원하는 직급을 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>원하는 인재를 찾았으면, 해당 인재와 컨택하기 기능을 눌러 채팅방을 통해 인재와 컨택할 수 있다.</t>
+  </si>
+  <si>
+    <t>기업회원이 조회한 인재 목록은 24시간동안 저장되며, 그 목록은 '오늘 본 인재'란에서 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>관심인재로 등록했을 시, 관심인재 보기에서 인재 목록을 관리할 수 있으며, 좋아요 해제를 통해 관심인재에서 삭제할 수 있다.</t>
+  </si>
+  <si>
+    <t>공고기반 추천인재 란에는, 자신이 원하는 직무에 해당하는 인재들을 무작위로 9건을 추천 받을 수 있다.</t>
+  </si>
+  <si>
+    <t>A-LAB-001</t>
+  </si>
+  <si>
+    <t>A-LAB-002</t>
+  </si>
+  <si>
+    <t>뉴스 게시판에 뉴스를 작성하려 입력할 수 있고, 수정 삭제가 가능하다.</t>
+  </si>
+  <si>
+    <t>진행 중이나 진행 예정인 공모전을 작성할 수 있고, 수정 삭제가 가능하다.</t>
+  </si>
+  <si>
+    <t>T-CMT-002</t>
+  </si>
+  <si>
+    <t>T-CMT-003</t>
+  </si>
+  <si>
+    <t>T-CMT-004</t>
+  </si>
+  <si>
+    <t>T-CMT-005</t>
+  </si>
+  <si>
+    <t>T-CMT-006</t>
+  </si>
+  <si>
+    <t>T-CMT-007</t>
+  </si>
+  <si>
+    <t>T-CMT-008</t>
+  </si>
+  <si>
+    <t>T-CMT-009</t>
+  </si>
+  <si>
+    <t>T-CMT-010</t>
+  </si>
+  <si>
+    <t>커뮤니티 메뉴로 들어가면 커뮤니티 홈을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>원하는 분류탭을 클릭하면 선택한 목록으로 이동한다.</t>
+  </si>
+  <si>
+    <t>키워드를 입력하면 검색할 수 있다.</t>
+  </si>
+  <si>
+    <t>각 분류별 리스트들의 제목과 댓글수를 확인할 수 있으며 제목을 클릭하면 해당 글의 상세내용을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>커뮤니티 메뉴에서 글 전체로 들어가면 게시글의 모든 글들을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>해당 글을 클릭하면 상세페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t>인기순, 최신순, 공감 많은 순, 댓글 많은 순서로 정렬할 수 있다.</t>
+  </si>
+  <si>
+    <t>커뮤니티 메뉴에서 현직자인터뷰로 이동하면 인터뷰를 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>키워드를 입력하면 검색할 수 있으며 해당 글을 선택하면 상세페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/임채리</t>
+  </si>
+  <si>
+    <t>T-CCT-003</t>
+  </si>
+  <si>
+    <t>고객센터 내 문의하기를 클릭하면 문의를 할 수 있는 폼을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>로그인이 되어있지 않을 경우 alert로 로그인을 하면 문의할 수 있다는 메세지를 띄운다.</t>
+  </si>
+  <si>
+    <t>alert 취소를 누를 경우 폼화면을 계속 보여준다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/박형준, 임채리</t>
+  </si>
+  <si>
+    <t>상세내역에서 공감버튼과 댓글, 대댓글, 이미지첨부를 남길 수 있다.</t>
+  </si>
+  <si>
+    <t>글 전체 메뉴에서 게시글작성 버튼을 누르면 게시글을 작성할 수 있다.</t>
+  </si>
+  <si>
+    <t>ckediter로 이미지를 첨부할 수 있으며 첨부파일도 올릴 수 있다.</t>
+  </si>
+  <si>
+    <t>게시글등록을 누를 경우 게시글이 등록되었습니다. 라는 alert가 뜨며 글 전체 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t>취소를 누를 경우 글 전체 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t>자신의 글 상세페이지로 가면 수정 및 삭제 버튼을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>수정버튼을 클릭할 경우 수정할 수 있으며 삭제할 경우 '게시글이 삭제되었습니다.'라는 제목과 '삭제된 글입니다'라는 내용으로 변경된다.</t>
+  </si>
+  <si>
+    <t>A-CMT-001</t>
+  </si>
+  <si>
+    <t>A-CMT-002</t>
+  </si>
+  <si>
+    <t>A-CMT-003</t>
+  </si>
+  <si>
+    <t>A-CMT-004</t>
+  </si>
+  <si>
+    <t>A-CMT-005</t>
+  </si>
+  <si>
+    <t>A-CMT-006</t>
+  </si>
+  <si>
+    <t>A-CMT-007</t>
+  </si>
+  <si>
+    <t>이메일인증과 개인정보에 동의를 할 경우만 문의할 수 있다.</t>
+  </si>
+  <si>
+    <t>파일을 첨부해야할 경우 첨부할 수 있으며 다중선택도 가능하다.</t>
+  </si>
+  <si>
+    <t>개인정보 동의를 체크하지 않을 경우 alert가 뜬다.</t>
+  </si>
+  <si>
+    <t>문의하기 버튼을 누르면 내 문의내역으로 이동한다.</t>
+  </si>
+  <si>
+    <t>고객센터 내 내 문의 내역을 클릭하면 내역목록을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>제목을 클릭할 경우 내가 작성한 내용을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>운영자의 답변이 달렸을 경우 처리상태가 '확인중' -&gt; '처리완료'로 바뀐다.</t>
+  </si>
+  <si>
+    <t>상세내역에서 운영자의 답변을 확인할 수 있으며 목록 버튼을 누르면 목록화면으로 이동한다.</t>
+  </si>
+  <si>
+    <t>재문의하기 버튼을 클릭하면 문의하기 폼으로 이동한다.</t>
+  </si>
+  <si>
+    <t>I-CCT-001</t>
+  </si>
+  <si>
+    <t>I-CCT-002</t>
+  </si>
+  <si>
+    <t>I-CCT-003</t>
+  </si>
+  <si>
+    <t>I-CCT-004</t>
+  </si>
+  <si>
+    <t>I-CCT-005</t>
+  </si>
+  <si>
+    <t>I-CCT-006</t>
+  </si>
+  <si>
+    <t>I-CCT-007</t>
+  </si>
+  <si>
+    <t>I-CCT-008</t>
+  </si>
+  <si>
+    <t>I-CCT-009</t>
+  </si>
+  <si>
+    <t>로그인된 회원일 경우 현직자인터뷰 상세페이지에 수정 및 삭제 버튼을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>수정버튼을 클릭할 경우 수정페이지로 이동하며 삭제할 경우 글이 삭제된다.</t>
+  </si>
+  <si>
+    <t>ㄴ-CMT-001</t>
+  </si>
+  <si>
+    <t>S-CMT-001</t>
+  </si>
+  <si>
+    <t>S-CMT-002</t>
+  </si>
+  <si>
+    <t>S-CMT-003</t>
+  </si>
+  <si>
+    <t>S-CMT-004</t>
+  </si>
+  <si>
+    <t>S-CMT-005</t>
+  </si>
+  <si>
+    <t>S-CMT-006</t>
+  </si>
+  <si>
+    <t>S-CMT-007</t>
+  </si>
+  <si>
+    <t>T-CLS-002</t>
+  </si>
+  <si>
+    <t>T-CLS-003</t>
+  </si>
+  <si>
+    <t>T-CLS-004</t>
+  </si>
+  <si>
+    <t>T-CLS-005</t>
+  </si>
+  <si>
+    <t>보고싶은 유료상품을 클릭하면 상세설명을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>유료상품에 관련된 이벤트를 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>유료상품을 구매한 회원들이 작성한 상품의 후기를 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>2023-02-18/허근주</t>
+  </si>
+  <si>
+    <t>T-MYP-002</t>
+  </si>
+  <si>
+    <t>자신의 변경된 상태에 대한 알림을 확인 할 수 있다.</t>
+  </si>
+  <si>
+    <t>개인정보를 수정하거나 회원탈퇴를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>T-MYP-003</t>
+  </si>
+  <si>
+    <t>T-MYP-004</t>
+  </si>
+  <si>
+    <t>T-MYP-005</t>
+  </si>
+  <si>
+    <t>T-MYP-006</t>
+  </si>
+  <si>
+    <t>T-MYP-007</t>
+  </si>
+  <si>
+    <t>T-MYP-008</t>
+  </si>
+  <si>
+    <t>자신이 등록한 이력서/자기소개서를 확인 할 수 있다.</t>
+  </si>
+  <si>
+    <t>본인을 홍보한 글을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>본인의 채용과정 현황 및 지원 내역을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>관심 공고와 관심 기업에 대한 정보를 확인할 수 있으며 수정할 수 있다.</t>
+  </si>
+  <si>
+    <t>전문가 권한을 가진 일반회원은 본인이 등록한 상품들과 상품에 대한 후기를 확인 할 수 있다.</t>
+  </si>
+  <si>
+    <t>전문가는 자신의 정보를 수정하거나 본인이 등록한 상품에 대해 수정할 수 있다.</t>
+  </si>
+  <si>
+    <t>T-CLS-006</t>
+  </si>
+  <si>
+    <t>T-CLS-007</t>
+  </si>
+  <si>
+    <t>T-CLS-008</t>
+  </si>
+  <si>
+    <t>유료상품을 구매하고 사용 후 후기를 등록할 수 있다.</t>
+  </si>
+  <si>
+    <t>전문가 권한을 가지기 위해 전문가 신청을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>전문가 권한을 가진 회원은 상품 등록 신청을 하여 수익을 창출할 수 있다.</t>
+  </si>
+  <si>
+    <t>T-MYP-009</t>
+  </si>
+  <si>
+    <t>T-MYP-010</t>
+  </si>
+  <si>
+    <t>T-MYP-011</t>
+  </si>
+  <si>
+    <t>모든 기업회원은 기업의 정보를 확인할 수 있지만 수정은 권한에 따라 다르게 수정할 수 있다.</t>
+  </si>
+  <si>
+    <t>기업의 투명도 랭킹과 점수를 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>기업이 등록한 공고와 채용과정을 확인할 수 있고 권한에 따라 수정할 수 있다.</t>
+  </si>
+  <si>
+    <t>최고 인사담당자는 기업회원의 권한을 부여/회수할 수 있다.</t>
+  </si>
+  <si>
+    <t>T-CLS-009</t>
+  </si>
+  <si>
+    <t>T-CLS-010</t>
+  </si>
+  <si>
+    <t>전문가 신청을 승인할 수 있다.</t>
+  </si>
+  <si>
+    <t>전문가가 등록한 상품에 대해 승인할 수 있다.</t>
+  </si>
+  <si>
+    <t>2023-02-18//허근주</t>
   </si>
 </sst>
 </file>
@@ -3688,6 +4252,11 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="굴림"/>
       <color rgb="FF000000"/>
     </font>
@@ -3704,11 +4273,6 @@
       <sz val="11.0"/>
       <name val="굴림"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
   <fills count="40">
@@ -5010,7 +5574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="457">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="25"/>
@@ -6349,6 +6913,52 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="69" xfId="27" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -7986,7 +8596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A33:Z84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -8369,7 +8979,7 @@
   <dimension ref="A1:CC179"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K9" sqref="D9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -8485,9 +9095,13 @@
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="21.000000" customHeight="1">
       <c r="A8" s="49"/>
-      <c r="B8" s="219"/>
+      <c r="B8" s="219">
+        <v>1.1</v>
+      </c>
       <c r="C8" s="220"/>
-      <c r="D8" s="224"/>
+      <c r="D8" s="224" t="s">
+        <v>1048</v>
+      </c>
       <c r="E8" s="225"/>
       <c r="F8" s="225"/>
       <c r="G8" s="225"/>
@@ -8495,7 +9109,9 @@
       <c r="I8" s="225"/>
       <c r="J8" s="225"/>
       <c r="K8" s="226"/>
-      <c r="L8" s="54"/>
+      <c r="L8" s="414">
+        <v>44977</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="21.000000" customHeight="1">
       <c r="A9" s="49"/>
@@ -12945,10 +13561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:G74"/>
+    <sheetView topLeftCell="C139" workbookViewId="0">
+      <selection activeCell="E171" sqref="B171:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -13652,7 +14268,7 @@
         <v>790</v>
       </c>
       <c r="E65" s="88" t="s">
-        <v>956</v>
+        <v>1094</v>
       </c>
       <c r="F65" s="82" t="s">
         <v>792</v>
@@ -13673,39 +14289,43 @@
       <c r="G66" s="311"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="431" t="s">
         <v>982</v>
       </c>
-      <c r="B67" s="272" t="s">
+      <c r="B67" s="366" t="s">
         <v>948</v>
       </c>
-      <c r="C67" s="273"/>
-      <c r="D67" s="273"/>
-      <c r="E67" s="273"/>
-      <c r="F67" s="273"/>
-      <c r="G67" s="274"/>
+      <c r="C67" s="367"/>
+      <c r="D67" s="367"/>
+      <c r="E67" s="367"/>
+      <c r="F67" s="367"/>
+      <c r="G67" s="368"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="87"/>
-      <c r="B68" s="272" t="s">
+      <c r="A68" s="431" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B68" s="366" t="s">
         <v>949</v>
       </c>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="273"/>
-      <c r="G68" s="274"/>
+      <c r="C68" s="367"/>
+      <c r="D68" s="367"/>
+      <c r="E68" s="367"/>
+      <c r="F68" s="367"/>
+      <c r="G68" s="368"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="87"/>
-      <c r="B69" s="67" t="s">
-        <v>950</v>
-      </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="279"/>
+      <c r="A69" s="431" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B69" s="421" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C69" s="421"/>
+      <c r="D69" s="421"/>
+      <c r="E69" s="421"/>
+      <c r="F69" s="421"/>
+      <c r="G69" s="457"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="87"/>
@@ -13810,7 +14430,7 @@
         <v>790</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="F80" s="82" t="s">
         <v>792</v>
@@ -13831,57 +14451,69 @@
       <c r="G81" s="311"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="466" t="s">
         <v>983</v>
       </c>
-      <c r="B82" s="272" t="s">
+      <c r="B82" s="366" t="s">
         <v>952</v>
       </c>
-      <c r="C82" s="273"/>
-      <c r="D82" s="273"/>
-      <c r="E82" s="273"/>
-      <c r="F82" s="273"/>
-      <c r="G82" s="274"/>
+      <c r="C82" s="367"/>
+      <c r="D82" s="367"/>
+      <c r="E82" s="367"/>
+      <c r="F82" s="367"/>
+      <c r="G82" s="368"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="87"/>
-      <c r="B83" s="272" t="s">
+      <c r="A83" s="466" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B83" s="366" t="s">
         <v>953</v>
       </c>
-      <c r="C83" s="273"/>
-      <c r="D83" s="273"/>
-      <c r="E83" s="273"/>
-      <c r="F83" s="273"/>
-      <c r="G83" s="274"/>
+      <c r="C83" s="367"/>
+      <c r="D83" s="367"/>
+      <c r="E83" s="367"/>
+      <c r="F83" s="367"/>
+      <c r="G83" s="368"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="87"/>
-      <c r="B84" s="67" t="s">
-        <v>954</v>
-      </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="279"/>
+      <c r="A84" s="466" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B84" s="421" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C84" s="421"/>
+      <c r="D84" s="421"/>
+      <c r="E84" s="421"/>
+      <c r="F84" s="421"/>
+      <c r="G84" s="457"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="87"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="279"/>
+      <c r="A85" s="466" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B85" s="421" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C85" s="421"/>
+      <c r="D85" s="421"/>
+      <c r="E85" s="421"/>
+      <c r="F85" s="421"/>
+      <c r="G85" s="457"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="87"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="279"/>
+      <c r="A86" s="466" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B86" s="421" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C86" s="421"/>
+      <c r="D86" s="421"/>
+      <c r="E86" s="421"/>
+      <c r="F86" s="421"/>
+      <c r="G86" s="457"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="87"/>
@@ -13968,7 +14600,7 @@
         <v>790</v>
       </c>
       <c r="E95" s="88" t="s">
-        <v>956</v>
+        <v>1094</v>
       </c>
       <c r="F95" s="82" t="s">
         <v>792</v>
@@ -13989,51 +14621,69 @@
       <c r="G96" s="311"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="87" t="s">
+      <c r="A97" s="431" t="s">
         <v>984</v>
       </c>
-      <c r="B97" s="272"/>
-      <c r="C97" s="273"/>
-      <c r="D97" s="273"/>
-      <c r="E97" s="273"/>
-      <c r="F97" s="273"/>
-      <c r="G97" s="274"/>
+      <c r="B97" s="366" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C97" s="367"/>
+      <c r="D97" s="367"/>
+      <c r="E97" s="367"/>
+      <c r="F97" s="367"/>
+      <c r="G97" s="368"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="87"/>
-      <c r="B98" s="272"/>
-      <c r="C98" s="273"/>
-      <c r="D98" s="273"/>
-      <c r="E98" s="273"/>
-      <c r="F98" s="273"/>
-      <c r="G98" s="274"/>
+      <c r="A98" s="431" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B98" s="366" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C98" s="367"/>
+      <c r="D98" s="367"/>
+      <c r="E98" s="367"/>
+      <c r="F98" s="367"/>
+      <c r="G98" s="368"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="87"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="279"/>
+      <c r="A99" s="431" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B99" s="421" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C99" s="421"/>
+      <c r="D99" s="421"/>
+      <c r="E99" s="421"/>
+      <c r="F99" s="421"/>
+      <c r="G99" s="457"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="87"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="279"/>
+      <c r="A100" s="431" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B100" s="421" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C100" s="421"/>
+      <c r="D100" s="421"/>
+      <c r="E100" s="421"/>
+      <c r="F100" s="421"/>
+      <c r="G100" s="457"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="87"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="279"/>
+      <c r="A101" s="431" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B101" s="421" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C101" s="421"/>
+      <c r="D101" s="421"/>
+      <c r="E101" s="421"/>
+      <c r="F101" s="421"/>
+      <c r="G101" s="457"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="87"/>
@@ -14120,7 +14770,7 @@
         <v>790</v>
       </c>
       <c r="E110" s="88" t="s">
-        <v>956</v>
+        <v>1145</v>
       </c>
       <c r="F110" s="82" t="s">
         <v>792</v>
@@ -14141,96 +14791,134 @@
       <c r="G111" s="311"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="431" t="s">
         <v>985</v>
       </c>
-      <c r="B112" s="272"/>
-      <c r="C112" s="273"/>
-      <c r="D112" s="273"/>
-      <c r="E112" s="273"/>
-      <c r="F112" s="273"/>
-      <c r="G112" s="274"/>
+      <c r="B112" s="366" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C112" s="367"/>
+      <c r="D112" s="367"/>
+      <c r="E112" s="367"/>
+      <c r="F112" s="367"/>
+      <c r="G112" s="368"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="87"/>
-      <c r="B113" s="272"/>
-      <c r="C113" s="273"/>
-      <c r="D113" s="273"/>
-      <c r="E113" s="273"/>
-      <c r="F113" s="273"/>
-      <c r="G113" s="274"/>
+      <c r="A113" s="431" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B113" s="366" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C113" s="367"/>
+      <c r="D113" s="367"/>
+      <c r="E113" s="367"/>
+      <c r="F113" s="367"/>
+      <c r="G113" s="368"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="87"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="279"/>
+      <c r="A114" s="431" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B114" s="421" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C114" s="421"/>
+      <c r="D114" s="421"/>
+      <c r="E114" s="421"/>
+      <c r="F114" s="421"/>
+      <c r="G114" s="457"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="87"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="279"/>
+      <c r="A115" s="431" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B115" s="421" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C115" s="421"/>
+      <c r="D115" s="421"/>
+      <c r="E115" s="421"/>
+      <c r="F115" s="421"/>
+      <c r="G115" s="457"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="87"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="279"/>
+      <c r="A116" s="431" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B116" s="421" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C116" s="421"/>
+      <c r="D116" s="421"/>
+      <c r="E116" s="421"/>
+      <c r="F116" s="421"/>
+      <c r="G116" s="457"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="87"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="279"/>
+      <c r="A117" s="431" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B117" s="421" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C117" s="421"/>
+      <c r="D117" s="421"/>
+      <c r="E117" s="421"/>
+      <c r="F117" s="421"/>
+      <c r="G117" s="457"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="87"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="279"/>
+      <c r="A118" s="431" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B118" s="421" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C118" s="421"/>
+      <c r="D118" s="421"/>
+      <c r="E118" s="421"/>
+      <c r="F118" s="421"/>
+      <c r="G118" s="457"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="87"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="279"/>
+      <c r="A119" s="431" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B119" s="421" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C119" s="421"/>
+      <c r="D119" s="421"/>
+      <c r="E119" s="421"/>
+      <c r="F119" s="421"/>
+      <c r="G119" s="457"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="445"/>
-      <c r="B120" s="451"/>
-      <c r="C120" s="451"/>
-      <c r="D120" s="451"/>
-      <c r="E120" s="451"/>
-      <c r="F120" s="451"/>
-      <c r="G120" s="452"/>
+      <c r="A120" s="431" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B120" s="458" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C120" s="458"/>
+      <c r="D120" s="458"/>
+      <c r="E120" s="458"/>
+      <c r="F120" s="458"/>
+      <c r="G120" s="459"/>
     </row>
     <row r="121" spans="1:7" ht="13.500000">
-      <c r="A121" s="113"/>
-      <c r="B121" s="275"/>
-      <c r="C121" s="275"/>
-      <c r="D121" s="275"/>
-      <c r="E121" s="275"/>
-      <c r="F121" s="275"/>
-      <c r="G121" s="276"/>
+      <c r="A121" s="431" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B121" s="460" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C121" s="460"/>
+      <c r="D121" s="460"/>
+      <c r="E121" s="460"/>
+      <c r="F121" s="460"/>
+      <c r="G121" s="461"/>
     </row>
     <row r="123" spans="1:7" ht="13.500000">
       <c r="A123" s="284" t="s">
@@ -14272,7 +14960,7 @@
         <v>790</v>
       </c>
       <c r="E125" s="88" t="s">
-        <v>956</v>
+        <v>1056</v>
       </c>
       <c r="F125" s="82" t="s">
         <v>792</v>
@@ -14293,42 +14981,56 @@
       <c r="G126" s="311"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="87" t="s">
+      <c r="A127" s="431" t="s">
         <v>986</v>
       </c>
-      <c r="B127" s="272"/>
-      <c r="C127" s="273"/>
-      <c r="D127" s="273"/>
-      <c r="E127" s="273"/>
-      <c r="F127" s="273"/>
-      <c r="G127" s="274"/>
+      <c r="B127" s="366" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C127" s="367"/>
+      <c r="D127" s="367"/>
+      <c r="E127" s="367"/>
+      <c r="F127" s="367"/>
+      <c r="G127" s="368"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="87"/>
-      <c r="B128" s="272"/>
-      <c r="C128" s="273"/>
-      <c r="D128" s="273"/>
-      <c r="E128" s="273"/>
-      <c r="F128" s="273"/>
-      <c r="G128" s="274"/>
+      <c r="A128" s="431" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B128" s="366" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C128" s="367"/>
+      <c r="D128" s="367"/>
+      <c r="E128" s="367"/>
+      <c r="F128" s="367"/>
+      <c r="G128" s="368"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="87"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="279"/>
+      <c r="A129" s="431" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B129" s="421" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C129" s="421"/>
+      <c r="D129" s="421"/>
+      <c r="E129" s="421"/>
+      <c r="F129" s="421"/>
+      <c r="G129" s="457"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="87"/>
-      <c r="B130" s="67"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="279"/>
+      <c r="A130" s="431" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B130" s="421" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C130" s="421"/>
+      <c r="D130" s="421"/>
+      <c r="E130" s="421"/>
+      <c r="F130" s="421"/>
+      <c r="G130" s="457"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="87"/>
@@ -14576,7 +15278,7 @@
         <v>790</v>
       </c>
       <c r="E155" s="88" t="s">
-        <v>956</v>
+        <v>1150</v>
       </c>
       <c r="F155" s="82" t="s">
         <v>792</v>
@@ -14597,51 +15299,69 @@
       <c r="G156" s="311"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="87" t="s">
+      <c r="A157" s="431" t="s">
         <v>988</v>
       </c>
-      <c r="B157" s="272"/>
-      <c r="C157" s="273"/>
-      <c r="D157" s="273"/>
-      <c r="E157" s="273"/>
-      <c r="F157" s="273"/>
-      <c r="G157" s="274"/>
+      <c r="B157" s="366" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C157" s="367"/>
+      <c r="D157" s="367"/>
+      <c r="E157" s="367"/>
+      <c r="F157" s="367"/>
+      <c r="G157" s="368"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="87"/>
-      <c r="B158" s="272"/>
-      <c r="C158" s="273"/>
-      <c r="D158" s="273"/>
-      <c r="E158" s="273"/>
-      <c r="F158" s="273"/>
-      <c r="G158" s="274"/>
+      <c r="A158" s="431" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B158" s="366" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C158" s="367"/>
+      <c r="D158" s="367"/>
+      <c r="E158" s="367"/>
+      <c r="F158" s="367"/>
+      <c r="G158" s="368"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="87"/>
-      <c r="B159" s="67"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="279"/>
+      <c r="A159" s="431" t="s">
+        <v>988</v>
+      </c>
+      <c r="B159" s="366" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C159" s="367"/>
+      <c r="D159" s="367"/>
+      <c r="E159" s="367"/>
+      <c r="F159" s="367"/>
+      <c r="G159" s="368"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="87"/>
-      <c r="B160" s="67"/>
-      <c r="C160" s="67"/>
-      <c r="D160" s="67"/>
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
-      <c r="G160" s="279"/>
+      <c r="A160" s="431" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B160" s="463" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C160" s="464"/>
+      <c r="D160" s="464"/>
+      <c r="E160" s="464"/>
+      <c r="F160" s="464"/>
+      <c r="G160" s="465"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="87"/>
-      <c r="B161" s="67"/>
-      <c r="C161" s="67"/>
-      <c r="D161" s="67"/>
-      <c r="E161" s="67"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="279"/>
+      <c r="A161" s="431" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B161" s="463" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C161" s="464"/>
+      <c r="D161" s="464"/>
+      <c r="E161" s="464"/>
+      <c r="F161" s="464"/>
+      <c r="G161" s="465"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="87"/>
@@ -14728,7 +15448,7 @@
         <v>790</v>
       </c>
       <c r="E170" s="88" t="s">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="F170" s="82" t="s">
         <v>792</v>
@@ -14749,24 +15469,30 @@
       <c r="G171" s="311"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="87" t="s">
+      <c r="A172" s="467" t="s">
         <v>989</v>
       </c>
-      <c r="B172" s="272"/>
-      <c r="C172" s="273"/>
-      <c r="D172" s="273"/>
-      <c r="E172" s="273"/>
-      <c r="F172" s="273"/>
-      <c r="G172" s="274"/>
+      <c r="B172" s="366" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C172" s="367"/>
+      <c r="D172" s="367"/>
+      <c r="E172" s="367"/>
+      <c r="F172" s="367"/>
+      <c r="G172" s="368"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="87"/>
-      <c r="B173" s="272"/>
-      <c r="C173" s="273"/>
-      <c r="D173" s="273"/>
-      <c r="E173" s="273"/>
-      <c r="F173" s="273"/>
-      <c r="G173" s="274"/>
+      <c r="A173" s="467" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B173" s="366" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C173" s="367"/>
+      <c r="D173" s="367"/>
+      <c r="E173" s="367"/>
+      <c r="F173" s="367"/>
+      <c r="G173" s="368"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="87"/>
@@ -15024,8 +15750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:G58"/>
+    <sheetView topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="E81" sqref="B81:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -15271,7 +15997,7 @@
         <v>790</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>956</v>
+        <v>1110</v>
       </c>
       <c r="F20" s="82" t="s">
         <v>792</v>
@@ -15318,49 +16044,69 @@
       <c r="G23" s="274"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="87"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="279"/>
+      <c r="A24" s="431" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B24" s="421" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C24" s="421"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="421"/>
+      <c r="F24" s="421"/>
+      <c r="G24" s="457"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="87"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="279"/>
+      <c r="A25" s="431" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B25" s="421" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C25" s="421"/>
+      <c r="D25" s="421"/>
+      <c r="E25" s="421"/>
+      <c r="F25" s="421"/>
+      <c r="G25" s="457"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="87"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="279"/>
+      <c r="A26" s="431" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B26" s="366" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26" s="367"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="367"/>
+      <c r="G26" s="368"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="87"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="279"/>
+      <c r="A27" s="431" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B27" s="366" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C27" s="367"/>
+      <c r="D27" s="367"/>
+      <c r="E27" s="367"/>
+      <c r="F27" s="367"/>
+      <c r="G27" s="368"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="87"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="279"/>
+      <c r="A28" s="431" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B28" s="421" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C28" s="421"/>
+      <c r="D28" s="421"/>
+      <c r="E28" s="421"/>
+      <c r="F28" s="421"/>
+      <c r="G28" s="457"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="87"/>
@@ -15907,7 +16653,7 @@
         <v>790</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="F80" s="82" t="s">
         <v>792</v>
@@ -15928,31 +16674,43 @@
       <c r="G81" s="311"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="87"/>
-      <c r="B82" s="272"/>
-      <c r="C82" s="273"/>
-      <c r="D82" s="273"/>
-      <c r="E82" s="273"/>
-      <c r="F82" s="273"/>
-      <c r="G82" s="274"/>
+      <c r="A82" s="470" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B82" s="366" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C82" s="367"/>
+      <c r="D82" s="367"/>
+      <c r="E82" s="367"/>
+      <c r="F82" s="367"/>
+      <c r="G82" s="368"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="87"/>
-      <c r="B83" s="272"/>
-      <c r="C83" s="273"/>
-      <c r="D83" s="273"/>
-      <c r="E83" s="273"/>
-      <c r="F83" s="273"/>
-      <c r="G83" s="274"/>
+      <c r="A83" s="470" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B83" s="366" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C83" s="367"/>
+      <c r="D83" s="367"/>
+      <c r="E83" s="367"/>
+      <c r="F83" s="367"/>
+      <c r="G83" s="368"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="87"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="279"/>
+      <c r="A84" s="470" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B84" s="421" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C84" s="421"/>
+      <c r="D84" s="421"/>
+      <c r="E84" s="421"/>
+      <c r="F84" s="421"/>
+      <c r="G84" s="457"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="87"/>
@@ -16228,67 +16986,95 @@
       <c r="G111" s="311"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="87"/>
-      <c r="B112" s="272"/>
-      <c r="C112" s="273"/>
-      <c r="D112" s="273"/>
-      <c r="E112" s="273"/>
-      <c r="F112" s="273"/>
-      <c r="G112" s="274"/>
+      <c r="A112" s="431" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B112" s="366" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C112" s="367"/>
+      <c r="D112" s="367"/>
+      <c r="E112" s="367"/>
+      <c r="F112" s="367"/>
+      <c r="G112" s="368"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="87"/>
-      <c r="B113" s="272"/>
-      <c r="C113" s="273"/>
-      <c r="D113" s="273"/>
-      <c r="E113" s="273"/>
-      <c r="F113" s="273"/>
-      <c r="G113" s="274"/>
+      <c r="A113" s="431" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B113" s="366" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C113" s="367"/>
+      <c r="D113" s="367"/>
+      <c r="E113" s="367"/>
+      <c r="F113" s="367"/>
+      <c r="G113" s="368"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="87"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="279"/>
+      <c r="A114" s="431" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B114" s="421" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C114" s="421"/>
+      <c r="D114" s="421"/>
+      <c r="E114" s="421"/>
+      <c r="F114" s="421"/>
+      <c r="G114" s="457"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="87"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="279"/>
+      <c r="A115" s="431" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B115" s="421" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C115" s="421"/>
+      <c r="D115" s="421"/>
+      <c r="E115" s="421"/>
+      <c r="F115" s="421"/>
+      <c r="G115" s="457"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="87"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="279"/>
+      <c r="A116" s="431" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B116" s="421" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C116" s="421"/>
+      <c r="D116" s="421"/>
+      <c r="E116" s="421"/>
+      <c r="F116" s="421"/>
+      <c r="G116" s="457"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="87"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="279"/>
+      <c r="A117" s="431" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B117" s="421" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C117" s="421"/>
+      <c r="D117" s="421"/>
+      <c r="E117" s="421"/>
+      <c r="F117" s="421"/>
+      <c r="G117" s="457"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="87"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="279"/>
+      <c r="A118" s="431" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B118" s="421" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C118" s="421"/>
+      <c r="D118" s="421"/>
+      <c r="E118" s="421"/>
+      <c r="F118" s="421"/>
+      <c r="G118" s="457"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="87"/>
@@ -16807,7 +17593,7 @@
         <v>790</v>
       </c>
       <c r="E170" s="88" t="s">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="F170" s="82" t="s">
         <v>792</v>
@@ -16828,58 +17614,82 @@
       <c r="G171" s="311"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="87"/>
-      <c r="B172" s="272"/>
-      <c r="C172" s="273"/>
-      <c r="D172" s="273"/>
-      <c r="E172" s="273"/>
-      <c r="F172" s="273"/>
-      <c r="G172" s="274"/>
+      <c r="A172" s="469" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B172" s="366" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C172" s="367"/>
+      <c r="D172" s="367"/>
+      <c r="E172" s="367"/>
+      <c r="F172" s="367"/>
+      <c r="G172" s="368"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="87"/>
-      <c r="B173" s="272"/>
-      <c r="C173" s="273"/>
-      <c r="D173" s="273"/>
-      <c r="E173" s="273"/>
-      <c r="F173" s="273"/>
-      <c r="G173" s="274"/>
+      <c r="A173" s="469" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B173" s="366" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C173" s="367"/>
+      <c r="D173" s="367"/>
+      <c r="E173" s="367"/>
+      <c r="F173" s="367"/>
+      <c r="G173" s="368"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="87"/>
-      <c r="B174" s="67"/>
-      <c r="C174" s="67"/>
-      <c r="D174" s="67"/>
-      <c r="E174" s="67"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="279"/>
+      <c r="A174" s="469" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B174" s="421" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C174" s="421"/>
+      <c r="D174" s="421"/>
+      <c r="E174" s="421"/>
+      <c r="F174" s="421"/>
+      <c r="G174" s="457"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="87"/>
-      <c r="B175" s="67"/>
-      <c r="C175" s="67"/>
-      <c r="D175" s="67"/>
-      <c r="E175" s="67"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="279"/>
+      <c r="A175" s="469" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B175" s="421" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C175" s="421"/>
+      <c r="D175" s="421"/>
+      <c r="E175" s="421"/>
+      <c r="F175" s="421"/>
+      <c r="G175" s="457"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="87"/>
-      <c r="B176" s="67"/>
-      <c r="C176" s="67"/>
-      <c r="D176" s="67"/>
-      <c r="E176" s="67"/>
-      <c r="F176" s="67"/>
-      <c r="G176" s="279"/>
+      <c r="A176" s="469" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B176" s="421" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C176" s="421"/>
+      <c r="D176" s="421"/>
+      <c r="E176" s="421"/>
+      <c r="F176" s="421"/>
+      <c r="G176" s="457"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="87"/>
-      <c r="B177" s="67"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="279"/>
+      <c r="A177" s="469" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B177" s="421" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C177" s="421"/>
+      <c r="D177" s="421"/>
+      <c r="E177" s="421"/>
+      <c r="F177" s="421"/>
+      <c r="G177" s="457"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="87"/>
@@ -17101,8 +17911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:G60"/>
+    <sheetView topLeftCell="C136" workbookViewId="0">
+      <selection activeCell="E171" sqref="B171:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -17346,7 +18156,7 @@
         <v>790</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>956</v>
+        <v>1090</v>
       </c>
       <c r="F20" s="82" t="s">
         <v>792</v>
@@ -17368,7 +18178,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="87" t="s">
-        <v>979</v>
+        <v>1082</v>
       </c>
       <c r="B22" s="272" t="s">
         <v>1029</v>
@@ -17380,40 +18190,56 @@
       <c r="G22" s="274"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="87"/>
-      <c r="B23" s="272"/>
-      <c r="C23" s="273"/>
-      <c r="D23" s="273"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="273"/>
-      <c r="G23" s="274"/>
+      <c r="A23" s="431" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B23" s="366" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C23" s="367"/>
+      <c r="D23" s="367"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="87"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="279"/>
+      <c r="A24" s="431" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B24" s="366" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C24" s="367"/>
+      <c r="D24" s="367"/>
+      <c r="E24" s="367"/>
+      <c r="F24" s="367"/>
+      <c r="G24" s="368"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="87"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="279"/>
+      <c r="A25" s="431" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B25" s="366" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C25" s="367"/>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="368"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="87"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="279"/>
+      <c r="A26" s="431" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B26" s="421" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C26" s="421"/>
+      <c r="D26" s="421"/>
+      <c r="E26" s="421"/>
+      <c r="F26" s="421"/>
+      <c r="G26" s="457"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="87"/>
@@ -17822,7 +18648,7 @@
         <v>790</v>
       </c>
       <c r="E65" s="88" t="s">
-        <v>956</v>
+        <v>1094</v>
       </c>
       <c r="F65" s="82" t="s">
         <v>792</v>
@@ -17843,58 +18669,82 @@
       <c r="G66" s="311"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="87"/>
-      <c r="B67" s="272"/>
-      <c r="C67" s="273"/>
-      <c r="D67" s="273"/>
-      <c r="E67" s="273"/>
-      <c r="F67" s="273"/>
-      <c r="G67" s="274"/>
+      <c r="A67" s="431" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B67" s="366" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C67" s="367"/>
+      <c r="D67" s="367"/>
+      <c r="E67" s="367"/>
+      <c r="F67" s="367"/>
+      <c r="G67" s="368"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="87"/>
-      <c r="B68" s="272"/>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="273"/>
-      <c r="G68" s="274"/>
+      <c r="A68" s="431" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B68" s="366" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C68" s="367"/>
+      <c r="D68" s="367"/>
+      <c r="E68" s="367"/>
+      <c r="F68" s="367"/>
+      <c r="G68" s="368"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="87"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="279"/>
+      <c r="A69" s="431" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B69" s="421" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C69" s="421"/>
+      <c r="D69" s="421"/>
+      <c r="E69" s="421"/>
+      <c r="F69" s="421"/>
+      <c r="G69" s="457"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="87"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="279"/>
+      <c r="A70" s="431" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B70" s="421" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C70" s="421"/>
+      <c r="D70" s="421"/>
+      <c r="E70" s="421"/>
+      <c r="F70" s="421"/>
+      <c r="G70" s="457"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="87"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="279"/>
+      <c r="A71" s="431" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B71" s="421" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C71" s="421"/>
+      <c r="D71" s="421"/>
+      <c r="E71" s="421"/>
+      <c r="F71" s="421"/>
+      <c r="G71" s="457"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="87"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="279"/>
+      <c r="A72" s="431" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B72" s="421" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C72" s="421"/>
+      <c r="D72" s="421"/>
+      <c r="E72" s="421"/>
+      <c r="F72" s="421"/>
+      <c r="G72" s="457"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="87"/>
@@ -18722,7 +19572,7 @@
         <v>790</v>
       </c>
       <c r="E155" s="88" t="s">
-        <v>956</v>
+        <v>1145</v>
       </c>
       <c r="F155" s="82" t="s">
         <v>792</v>
@@ -18743,85 +19593,121 @@
       <c r="G156" s="311"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="87"/>
-      <c r="B157" s="272"/>
-      <c r="C157" s="273"/>
-      <c r="D157" s="273"/>
-      <c r="E157" s="273"/>
-      <c r="F157" s="273"/>
-      <c r="G157" s="274"/>
+      <c r="A157" s="431" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B157" s="366" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C157" s="367"/>
+      <c r="D157" s="367"/>
+      <c r="E157" s="367"/>
+      <c r="F157" s="367"/>
+      <c r="G157" s="368"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="87"/>
-      <c r="B158" s="272"/>
-      <c r="C158" s="273"/>
-      <c r="D158" s="273"/>
-      <c r="E158" s="273"/>
-      <c r="F158" s="273"/>
-      <c r="G158" s="274"/>
+      <c r="A158" s="431" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B158" s="421" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C158" s="421"/>
+      <c r="D158" s="421"/>
+      <c r="E158" s="421"/>
+      <c r="F158" s="421"/>
+      <c r="G158" s="457"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="87"/>
-      <c r="B159" s="67"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="279"/>
+      <c r="A159" s="431" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B159" s="421" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C159" s="421"/>
+      <c r="D159" s="421"/>
+      <c r="E159" s="421"/>
+      <c r="F159" s="421"/>
+      <c r="G159" s="457"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="87"/>
-      <c r="B160" s="67"/>
-      <c r="C160" s="67"/>
-      <c r="D160" s="67"/>
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
-      <c r="G160" s="279"/>
+      <c r="A160" s="431" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B160" s="421" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C160" s="421"/>
+      <c r="D160" s="421"/>
+      <c r="E160" s="421"/>
+      <c r="F160" s="421"/>
+      <c r="G160" s="457"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="87"/>
-      <c r="B161" s="67"/>
-      <c r="C161" s="67"/>
-      <c r="D161" s="67"/>
-      <c r="E161" s="67"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="279"/>
+      <c r="A161" s="431" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B161" s="421" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C161" s="421"/>
+      <c r="D161" s="421"/>
+      <c r="E161" s="421"/>
+      <c r="F161" s="421"/>
+      <c r="G161" s="457"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="87"/>
-      <c r="B162" s="67"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="279"/>
+      <c r="A162" s="431" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B162" s="421" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C162" s="421"/>
+      <c r="D162" s="421"/>
+      <c r="E162" s="421"/>
+      <c r="F162" s="421"/>
+      <c r="G162" s="457"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="87"/>
-      <c r="B163" s="67"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="67"/>
-      <c r="E163" s="67"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="279"/>
+      <c r="A163" s="431" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B163" s="421" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C163" s="421"/>
+      <c r="D163" s="421"/>
+      <c r="E163" s="421"/>
+      <c r="F163" s="421"/>
+      <c r="G163" s="457"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="87"/>
-      <c r="B164" s="67"/>
-      <c r="C164" s="67"/>
-      <c r="D164" s="67"/>
-      <c r="E164" s="67"/>
-      <c r="F164" s="67"/>
-      <c r="G164" s="279"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="445"/>
-      <c r="B165" s="451"/>
-      <c r="C165" s="451"/>
-      <c r="D165" s="451"/>
-      <c r="E165" s="451"/>
-      <c r="F165" s="451"/>
-      <c r="G165" s="452"/>
+      <c r="A164" s="431" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B164" s="458" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C164" s="458"/>
+      <c r="D164" s="458"/>
+      <c r="E164" s="458"/>
+      <c r="F164" s="458"/>
+      <c r="G164" s="459"/>
+    </row>
+    <row r="165" spans="1:7" ht="13.500000">
+      <c r="A165" s="431" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B165" s="460" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C165" s="460"/>
+      <c r="D165" s="460"/>
+      <c r="E165" s="460"/>
+      <c r="F165" s="460"/>
+      <c r="G165" s="461"/>
     </row>
     <row r="166" spans="1:7" ht="13.500000">
       <c r="A166" s="113"/>
@@ -18872,7 +19758,7 @@
         <v>790</v>
       </c>
       <c r="E170" s="88" t="s">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="F170" s="82" t="s">
         <v>792</v>
@@ -18893,40 +19779,56 @@
       <c r="G171" s="311"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="87"/>
-      <c r="B172" s="272"/>
-      <c r="C172" s="273"/>
-      <c r="D172" s="273"/>
-      <c r="E172" s="273"/>
-      <c r="F172" s="273"/>
-      <c r="G172" s="274"/>
+      <c r="A172" s="471" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B172" s="366" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C172" s="367"/>
+      <c r="D172" s="367"/>
+      <c r="E172" s="367"/>
+      <c r="F172" s="367"/>
+      <c r="G172" s="368"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="87"/>
-      <c r="B173" s="272"/>
-      <c r="C173" s="273"/>
-      <c r="D173" s="273"/>
-      <c r="E173" s="273"/>
-      <c r="F173" s="273"/>
-      <c r="G173" s="274"/>
+      <c r="A173" s="471" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B173" s="366" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C173" s="367"/>
+      <c r="D173" s="367"/>
+      <c r="E173" s="367"/>
+      <c r="F173" s="367"/>
+      <c r="G173" s="368"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="87"/>
-      <c r="B174" s="67"/>
-      <c r="C174" s="67"/>
-      <c r="D174" s="67"/>
-      <c r="E174" s="67"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="279"/>
+      <c r="A174" s="471" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B174" s="421" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C174" s="421"/>
+      <c r="D174" s="421"/>
+      <c r="E174" s="421"/>
+      <c r="F174" s="421"/>
+      <c r="G174" s="457"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="87"/>
-      <c r="B175" s="67"/>
-      <c r="C175" s="67"/>
-      <c r="D175" s="67"/>
-      <c r="E175" s="67"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="279"/>
+      <c r="A175" s="471" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B175" s="421" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C175" s="421"/>
+      <c r="D175" s="421"/>
+      <c r="E175" s="421"/>
+      <c r="F175" s="421"/>
+      <c r="G175" s="457"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="87"/>
@@ -19166,8 +20068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -20003,7 +20905,7 @@
         <v>790</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>956</v>
+        <v>1233</v>
       </c>
       <c r="F80" s="82" t="s">
         <v>792</v>
@@ -20024,22 +20926,30 @@
       <c r="G81" s="311"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="87"/>
-      <c r="B82" s="272"/>
-      <c r="C82" s="273"/>
-      <c r="D82" s="273"/>
-      <c r="E82" s="273"/>
-      <c r="F82" s="273"/>
-      <c r="G82" s="274"/>
+      <c r="A82" s="472" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B82" s="366" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C82" s="367"/>
+      <c r="D82" s="367"/>
+      <c r="E82" s="367"/>
+      <c r="F82" s="367"/>
+      <c r="G82" s="368"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="87"/>
-      <c r="B83" s="272"/>
-      <c r="C83" s="273"/>
-      <c r="D83" s="273"/>
-      <c r="E83" s="273"/>
-      <c r="F83" s="273"/>
-      <c r="G83" s="274"/>
+      <c r="A83" s="472" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B83" s="366" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C83" s="367"/>
+      <c r="D83" s="367"/>
+      <c r="E83" s="367"/>
+      <c r="F83" s="367"/>
+      <c r="G83" s="368"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="87"/>
@@ -20153,7 +21063,7 @@
         <v>790</v>
       </c>
       <c r="E95" s="88" t="s">
-        <v>956</v>
+        <v>1094</v>
       </c>
       <c r="F95" s="82" t="s">
         <v>792</v>
@@ -20174,22 +21084,30 @@
       <c r="G96" s="311"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="87"/>
-      <c r="B97" s="272"/>
-      <c r="C97" s="273"/>
-      <c r="D97" s="273"/>
-      <c r="E97" s="273"/>
-      <c r="F97" s="273"/>
-      <c r="G97" s="274"/>
+      <c r="A97" s="431" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B97" s="366" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C97" s="367"/>
+      <c r="D97" s="367"/>
+      <c r="E97" s="367"/>
+      <c r="F97" s="367"/>
+      <c r="G97" s="368"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="87"/>
-      <c r="B98" s="272"/>
-      <c r="C98" s="273"/>
-      <c r="D98" s="273"/>
-      <c r="E98" s="273"/>
-      <c r="F98" s="273"/>
-      <c r="G98" s="274"/>
+      <c r="A98" s="431" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B98" s="366" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C98" s="367"/>
+      <c r="D98" s="367"/>
+      <c r="E98" s="367"/>
+      <c r="F98" s="367"/>
+      <c r="G98" s="368"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="87"/>
@@ -20303,7 +21221,7 @@
         <v>790</v>
       </c>
       <c r="E110" s="88" t="s">
-        <v>956</v>
+        <v>1145</v>
       </c>
       <c r="F110" s="82" t="s">
         <v>792</v>
@@ -20324,22 +21242,30 @@
       <c r="G111" s="311"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="87"/>
-      <c r="B112" s="272"/>
-      <c r="C112" s="273"/>
-      <c r="D112" s="273"/>
-      <c r="E112" s="273"/>
-      <c r="F112" s="273"/>
-      <c r="G112" s="274"/>
+      <c r="A112" s="431" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B112" s="366" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C112" s="367"/>
+      <c r="D112" s="367"/>
+      <c r="E112" s="367"/>
+      <c r="F112" s="367"/>
+      <c r="G112" s="368"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="87"/>
-      <c r="B113" s="272"/>
-      <c r="C113" s="273"/>
-      <c r="D113" s="273"/>
-      <c r="E113" s="273"/>
-      <c r="F113" s="273"/>
-      <c r="G113" s="274"/>
+      <c r="A113" s="431" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B113" s="366" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C113" s="367"/>
+      <c r="D113" s="367"/>
+      <c r="E113" s="367"/>
+      <c r="F113" s="367"/>
+      <c r="G113" s="368"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="87"/>
@@ -20603,7 +21529,7 @@
         <v>790</v>
       </c>
       <c r="E140" s="88" t="s">
-        <v>956</v>
+        <v>1056</v>
       </c>
       <c r="F140" s="82" t="s">
         <v>792</v>
@@ -20624,94 +21550,134 @@
       <c r="G141" s="311"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="87"/>
-      <c r="B142" s="272"/>
-      <c r="C142" s="273"/>
-      <c r="D142" s="273"/>
-      <c r="E142" s="273"/>
-      <c r="F142" s="273"/>
-      <c r="G142" s="274"/>
+      <c r="A142" s="431" t="s">
+        <v>987</v>
+      </c>
+      <c r="B142" s="366" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C142" s="367"/>
+      <c r="D142" s="367"/>
+      <c r="E142" s="367"/>
+      <c r="F142" s="367"/>
+      <c r="G142" s="368"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="87"/>
-      <c r="B143" s="272"/>
-      <c r="C143" s="273"/>
-      <c r="D143" s="273"/>
-      <c r="E143" s="273"/>
-      <c r="F143" s="273"/>
-      <c r="G143" s="274"/>
+      <c r="A143" s="431" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B143" s="366" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C143" s="367"/>
+      <c r="D143" s="367"/>
+      <c r="E143" s="367"/>
+      <c r="F143" s="367"/>
+      <c r="G143" s="368"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="87"/>
-      <c r="B144" s="67"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="279"/>
+      <c r="A144" s="431" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B144" s="421" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C144" s="421"/>
+      <c r="D144" s="421"/>
+      <c r="E144" s="421"/>
+      <c r="F144" s="421"/>
+      <c r="G144" s="457"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="87"/>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="279"/>
+      <c r="A145" s="431" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B145" s="421" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C145" s="421"/>
+      <c r="D145" s="421"/>
+      <c r="E145" s="421"/>
+      <c r="F145" s="421"/>
+      <c r="G145" s="457"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="87"/>
-      <c r="B146" s="67"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="279"/>
+      <c r="A146" s="431" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B146" s="421" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C146" s="421"/>
+      <c r="D146" s="421"/>
+      <c r="E146" s="421"/>
+      <c r="F146" s="421"/>
+      <c r="G146" s="457"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="87"/>
-      <c r="B147" s="67"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="279"/>
+      <c r="A147" s="431" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B147" s="421" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C147" s="421"/>
+      <c r="D147" s="421"/>
+      <c r="E147" s="421"/>
+      <c r="F147" s="421"/>
+      <c r="G147" s="457"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="87"/>
-      <c r="B148" s="67"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="279"/>
+      <c r="A148" s="431" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B148" s="421" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C148" s="421"/>
+      <c r="D148" s="421"/>
+      <c r="E148" s="421"/>
+      <c r="F148" s="421"/>
+      <c r="G148" s="457"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="87"/>
-      <c r="B149" s="67"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="279"/>
+      <c r="A149" s="431" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B149" s="421" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C149" s="421"/>
+      <c r="D149" s="421"/>
+      <c r="E149" s="421"/>
+      <c r="F149" s="421"/>
+      <c r="G149" s="457"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="445"/>
-      <c r="B150" s="451"/>
-      <c r="C150" s="451"/>
-      <c r="D150" s="451"/>
-      <c r="E150" s="451"/>
-      <c r="F150" s="451"/>
-      <c r="G150" s="452"/>
+      <c r="A150" s="431" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B150" s="458" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C150" s="458"/>
+      <c r="D150" s="458"/>
+      <c r="E150" s="458"/>
+      <c r="F150" s="458"/>
+      <c r="G150" s="459"/>
     </row>
     <row r="151" spans="1:7" ht="13.500000">
-      <c r="A151" s="113"/>
-      <c r="B151" s="275"/>
-      <c r="C151" s="275"/>
-      <c r="D151" s="275"/>
-      <c r="E151" s="275"/>
-      <c r="F151" s="275"/>
-      <c r="G151" s="276"/>
+      <c r="A151" s="436" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B151" s="460" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C151" s="460"/>
+      <c r="D151" s="460"/>
+      <c r="E151" s="460"/>
+      <c r="F151" s="460"/>
+      <c r="G151" s="461"/>
     </row>
     <row r="153" spans="1:7" ht="13.500000">
       <c r="A153" s="284" t="s">
